--- a/biology/Zoologie/Bombus_hypnorum/Bombus_hypnorum.xlsx
+++ b/biology/Zoologie/Bombus_hypnorum/Bombus_hypnorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bourdon des arbres
 Bombus hypnorum, le bourdon des arbres, est une espèce d'insectes hyménoptères de la famille des Apidae, du genre Bombus et du sous-genre Pyrobombus.
-Cette espèce édifie son nid dans les troncs d'arbres mais aussi dans des nichoirs à oiseaux ou dans des cavités des habitations humaines ; c'est l'un des rares bourdons à se montrer agressif si l'on s'approche du trou d'envol[1].
+Cette espèce édifie son nid dans les troncs d'arbres mais aussi dans des nichoirs à oiseaux ou dans des cavités des habitations humaines ; c'est l'un des rares bourdons à se montrer agressif si l'on s'approche du trou d'envol.
 </t>
         </is>
       </c>
@@ -513,11 +525,48 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L'espèce a été décrite par Linné dans la dixième édition de son Systema naturae en 1758, sous le nom d'Apis hypnorum[2]. 
-Liste des sous-espèces
-Selon NCBI  (9 août 2010)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite par Linné dans la dixième édition de son Systema naturae en 1758, sous le nom d'Apis hypnorum. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bombus_hypnorum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombus_hypnorum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon NCBI  (9 août 2010) :
 sous-espèce Bombus hypnorum calidus
 sous-espèce Bombus hypnorum klutschianus
 sous-espèce Bombus hypnorum koropokkrus</t>
